--- a/StructureDefinition-be-mycareneteagreementdemand.xlsx
+++ b/StructureDefinition-be-mycareneteagreementdemand.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9460" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9460" uniqueCount="274">
   <si>
     <t>Path</t>
   </si>
@@ -860,6 +860,10 @@
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ele-1:All FHIR elements must have a @value {hasValue()}</t>
+  </si>
+  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -28311,16 +28315,16 @@
         <v>40</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>40</v>
@@ -31083,7 +31087,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -31106,19 +31110,19 @@
         <v>50</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>40</v>
@@ -31167,7 +31171,7 @@
         <v>40</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-be-mycareneteagreementdemand.xlsx
+++ b/StructureDefinition-be-mycareneteagreementdemand.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9460" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9460" uniqueCount="273">
   <si>
     <t>Path</t>
   </si>
@@ -860,10 +860,6 @@
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ele-1:All FHIR elements must have a @value {hasValue()}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -28315,16 +28311,16 @@
         <v>40</v>
       </c>
       <c r="AI247" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AJ247" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK247" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AJ247" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK247" t="s" s="2">
+      <c r="AL247" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL247" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>40</v>
@@ -31087,7 +31083,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -31110,19 +31106,19 @@
         <v>50</v>
       </c>
       <c r="J273" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K273" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K273" t="s" s="2">
+      <c r="L273" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L273" t="s" s="2">
+      <c r="M273" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M273" t="s" s="2">
+      <c r="N273" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N273" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>40</v>
@@ -31171,7 +31167,7 @@
         <v>40</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-be-mycareneteagreementdemand.xlsx
+++ b/StructureDefinition-be-mycareneteagreementdemand.xlsx
@@ -800,7 +800,7 @@
     <t>Entity. Role, or Act</t>
   </si>
   <si>
-    <t>practitionerRole</t>
+    <t>practitionerrole</t>
   </si>
   <si>
     <t xml:space="preserve">PractitionerRole {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole}
@@ -1041,7 +1041,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.17578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.55859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.12890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="47.5078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-be-mycareneteagreementdemand.xlsx
+++ b/StructureDefinition-be-mycareneteagreementdemand.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9460" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9460" uniqueCount="267">
   <si>
     <t>Path</t>
   </si>
@@ -846,26 +846,6 @@
     <t>patient</t>
   </si>
   <si>
-    <t xml:space="preserve">SubjectOfCare Client Resident
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient}
-</t>
-  </si>
-  <si>
-    <t>Information about an individual or animal receiving health care services</t>
-  </si>
-  <si>
-    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
-  </si>
-  <si>
-    <t>Patient[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument.recordTarget.patientRole</t>
-  </si>
-  <si>
     <t>Bundle.signature</t>
   </si>
   <si>
@@ -28223,11 +28203,11 @@
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F247" t="s" s="2">
         <v>49</v>
@@ -28239,16 +28219,16 @@
         <v>40</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>264</v>
+        <v>156</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -28311,16 +28291,16 @@
         <v>40</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>40</v>
@@ -31083,7 +31063,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -31106,19 +31086,19 @@
         <v>50</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>40</v>
@@ -31167,7 +31147,7 @@
         <v>40</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-be-mycareneteagreementdemand.xlsx
+++ b/StructureDefinition-be-mycareneteagreementdemand.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9460" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9460" uniqueCount="273">
   <si>
     <t>Path</t>
   </si>
@@ -735,7 +735,7 @@
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
   </si>
   <si>
-    <t>messageheader</t>
+    <t>messageHeader</t>
   </si>
   <si>
     <t xml:space="preserve">MessageHeader {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-mycareneteagreementmessageheader}
@@ -800,7 +800,7 @@
     <t>Entity. Role, or Act</t>
   </si>
   <si>
-    <t>practitionerrole</t>
+    <t>practitionerRole</t>
   </si>
   <si>
     <t xml:space="preserve">PractitionerRole {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole}
@@ -844,6 +844,26 @@
   </si>
   <si>
     <t>patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubjectOfCare Client Resident
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient}
+</t>
+  </si>
+  <si>
+    <t>Information about an individual or animal receiving health care services</t>
+  </si>
+  <si>
+    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+  </si>
+  <si>
+    <t>Patient[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument.recordTarget.patientRole</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1021,7 +1041,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.17578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.55859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="47.5078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -28203,11 +28223,11 @@
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F247" t="s" s="2">
         <v>49</v>
@@ -28219,16 +28239,16 @@
         <v>40</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>154</v>
+        <v>262</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -28291,16 +28311,16 @@
         <v>40</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>40</v>
@@ -31063,7 +31083,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -31086,19 +31106,19 @@
         <v>50</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>40</v>
@@ -31147,7 +31167,7 @@
         <v>40</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
